--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H2">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I2">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J2">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>149.829178</v>
+        <v>192.036265</v>
       </c>
       <c r="N2">
-        <v>449.487534</v>
+        <v>576.108795</v>
       </c>
       <c r="O2">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="P2">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="Q2">
-        <v>5110.946250342316</v>
+        <v>275.8666879175983</v>
       </c>
       <c r="R2">
-        <v>45998.51625308084</v>
+        <v>2482.800191258385</v>
       </c>
       <c r="S2">
-        <v>0.4081845769348056</v>
+        <v>0.03091563043544614</v>
       </c>
       <c r="T2">
-        <v>0.4081845769348056</v>
+        <v>0.03091563043544614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H3">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I3">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J3">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.064358</v>
       </c>
       <c r="O3">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="P3">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="Q3">
-        <v>34.84361154675867</v>
+        <v>1.467351825541556</v>
       </c>
       <c r="R3">
-        <v>313.5925039208281</v>
+        <v>13.206166429874</v>
       </c>
       <c r="S3">
-        <v>0.002782777227825827</v>
+        <v>0.0001644421336249569</v>
       </c>
       <c r="T3">
-        <v>0.002782777227825827</v>
+        <v>0.0001644421336249569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H4">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I4">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J4">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.374661666666667</v>
+        <v>8.295893999999999</v>
       </c>
       <c r="N4">
-        <v>13.123985</v>
+        <v>24.887682</v>
       </c>
       <c r="O4">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="P4">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="Q4">
-        <v>149.2276800835567</v>
+        <v>11.917336556694</v>
       </c>
       <c r="R4">
-        <v>1343.04912075201</v>
+        <v>107.256029010246</v>
       </c>
       <c r="S4">
-        <v>0.01191803522836684</v>
+        <v>0.001335543539318654</v>
       </c>
       <c r="T4">
-        <v>0.01191803522836683</v>
+        <v>0.001335543539318654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H5">
         <v>104.646338</v>
       </c>
       <c r="I5">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J5">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.829178</v>
+        <v>192.036265</v>
       </c>
       <c r="N5">
-        <v>449.487534</v>
+        <v>576.108795</v>
       </c>
       <c r="O5">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="P5">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="Q5">
-        <v>5226.358267750056</v>
+        <v>6698.630631815856</v>
       </c>
       <c r="R5">
-        <v>47037.2244097505</v>
+        <v>60287.67568634271</v>
       </c>
       <c r="S5">
-        <v>0.417401931841564</v>
+        <v>0.750697340806284</v>
       </c>
       <c r="T5">
-        <v>0.4174019318415639</v>
+        <v>0.7506973408062841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H6">
         <v>104.646338</v>
       </c>
       <c r="I6">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J6">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.064358</v>
       </c>
       <c r="O6">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="P6">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="Q6">
-        <v>35.63042700233379</v>
+        <v>35.63042700233378</v>
       </c>
       <c r="R6">
-        <v>320.6738430210041</v>
+        <v>320.673843021004</v>
       </c>
       <c r="S6">
-        <v>0.002845616067862188</v>
+        <v>0.003993005178611208</v>
       </c>
       <c r="T6">
-        <v>0.002845616067862187</v>
+        <v>0.003993005178611209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H7">
         <v>104.646338</v>
       </c>
       <c r="I7">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J7">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.374661666666667</v>
+        <v>8.295893999999999</v>
       </c>
       <c r="N7">
-        <v>13.123985</v>
+        <v>24.887682</v>
       </c>
       <c r="O7">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="P7">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="Q7">
-        <v>152.5974411352145</v>
+        <v>289.378309178724</v>
       </c>
       <c r="R7">
-        <v>1373.37697021693</v>
+        <v>2604.404782608516</v>
       </c>
       <c r="S7">
-        <v>0.01218716043960344</v>
+        <v>0.03242984113136551</v>
       </c>
       <c r="T7">
-        <v>0.01218716043960344</v>
+        <v>0.03242984113136551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H8">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I8">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J8">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>149.829178</v>
+        <v>192.036265</v>
       </c>
       <c r="N8">
-        <v>449.487534</v>
+        <v>576.108795</v>
       </c>
       <c r="O8">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="P8">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="Q8">
-        <v>1748.585367350687</v>
+        <v>1535.804844358345</v>
       </c>
       <c r="R8">
-        <v>15737.26830615619</v>
+        <v>13822.2435992251</v>
       </c>
       <c r="S8">
-        <v>0.1396503785103644</v>
+        <v>0.1721134775190142</v>
       </c>
       <c r="T8">
-        <v>0.1396503785103644</v>
+        <v>0.1721134775190142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H9">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I9">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J9">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.064358</v>
       </c>
       <c r="O9">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="P9">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="Q9">
-        <v>11.92089024458689</v>
+        <v>8.169040122444667</v>
       </c>
       <c r="R9">
-        <v>107.288012201282</v>
+        <v>73.521361102002</v>
       </c>
       <c r="S9">
-        <v>0.000952059227945715</v>
+        <v>0.000915482138652668</v>
       </c>
       <c r="T9">
-        <v>0.0009520592279457148</v>
+        <v>0.000915482138652668</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H10">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I10">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J10">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.374661666666667</v>
+        <v>8.295893999999999</v>
       </c>
       <c r="N10">
-        <v>13.123985</v>
+        <v>24.887682</v>
       </c>
       <c r="O10">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="P10">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="Q10">
-        <v>51.05460418025723</v>
+        <v>66.34618827586199</v>
       </c>
       <c r="R10">
-        <v>459.491437622315</v>
+        <v>597.1156944827579</v>
       </c>
       <c r="S10">
-        <v>0.004077464521662007</v>
+        <v>0.007435237117682563</v>
       </c>
       <c r="T10">
-        <v>0.004077464521662006</v>
+        <v>0.007435237117682563</v>
       </c>
     </row>
   </sheetData>
